--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,8 +433,8 @@
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -813,12 +813,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -828,123 +828,123 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Q5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -953,25 +953,25 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -992,17 +992,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1011,46 +1011,46 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
         <v>12</v>
       </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
+        <v>8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="n">
         <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6</v>
       </c>
       <c r="V7" t="n">
         <v>6</v>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1093,49 +1093,49 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
         <v>13</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1175,60 +1175,60 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
         <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1238,79 +1238,79 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="Q10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1320,56 +1320,56 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1387,83 +1387,83 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>-4</v>
       </c>
       <c r="I12" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
         <v>5</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>36</v>
-      </c>
       <c r="Q12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1503,16 +1503,16 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1524,28 +1524,28 @@
         <v>2</v>
       </c>
       <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>13</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="n">
         <v>5</v>
       </c>
-      <c r="P13" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" t="n">
-        <v>4</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1588,43 +1588,43 @@
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>12</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="n">
         <v>8</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4</v>
-      </c>
-      <c r="P14" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>2</v>
@@ -1633,12 +1633,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1648,199 +1648,199 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
         <v>14</v>
       </c>
-      <c r="I16" t="n">
-        <v>21</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>36</v>
-      </c>
       <c r="Q16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1870,21 +1870,21 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,32 +1894,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1928,34 +1928,34 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1966,27 +1966,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1995,49 +1995,49 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I19" t="n">
+        <v>18</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7</v>
+      </c>
+      <c r="R19" t="n">
+        <v>16</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
         <v>5</v>
       </c>
-      <c r="J19" t="n">
-        <v>8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
         <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
-      <c r="V19" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
         <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2098,16 +2098,16 @@
         <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q20" t="n">
         <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2125,217 +2125,217 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H21" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
         <v>12</v>
       </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>4</v>
-      </c>
-      <c r="P21" t="n">
-        <v>37</v>
-      </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>8</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2344,16 +2344,16 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2362,21 +2362,21 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2386,35 +2386,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -2426,28 +2426,28 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2458,22 +2458,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2487,49 +2487,49 @@
         </is>
       </c>
       <c r="H25" t="n">
+        <v>22</v>
+      </c>
+      <c r="I25" t="n">
+        <v>28</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
         <v>5</v>
       </c>
-      <c r="I25" t="n">
-        <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2540,22 +2540,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2569,13 +2569,13 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2587,31 +2587,31 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
         <v>6</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2622,17 +2622,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2651,122 +2651,122 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>4</v>
+      </c>
+      <c r="P27" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
         <v>7</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3</v>
-      </c>
-      <c r="P27" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>9</v>
-      </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28" t="n">
         <v>4</v>
@@ -2781,12 +2781,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2796,38 +2796,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jaden Bobbett</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -2836,39 +2836,39 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2878,29 +2878,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
@@ -2918,77 +2918,77 @@
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>13</v>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3018,59 +3018,59 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Jaden Karuletwa</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3109,12 +3109,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3124,32 +3124,32 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ayden Kelley</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,25 +3161,25 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3191,12 +3191,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 7:00 PM EST</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,25 +3243,25 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3278,17 +3278,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3307,19 +3307,19 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3328,28 +3328,28 @@
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>6</v>
+      </c>
+      <c r="R35" t="n">
+        <v>16</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
+        <v>4</v>
+      </c>
+      <c r="U35" t="n">
         <v>12</v>
       </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
@@ -3360,17 +3360,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Simon Walker</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3389,16 +3389,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3407,31 +3407,31 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -3442,22 +3442,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Amere Brown</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3471,16 +3471,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3495,19 +3495,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Elmir Džafić</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3553,13 +3553,13 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3568,34 +3568,34 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P38" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -3606,77 +3606,3275 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Elyjah Freeman</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>VAN@AUB</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Aiden Sherrell</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Undrafted</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Malique Ewin</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>12</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sebastian Williams-Adams</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>VAN@AUB</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>12</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>4</v>
+      </c>
+      <c r="P42" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>9</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>VAN@AUB</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Robert Miller III</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>10</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>6</v>
+      </c>
+      <c r="V44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Filip Jović</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>VAN@AUB</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mazi Mosley</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>VAN@AUB</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Jalen Reece</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>9</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>4</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Jaden Bobbett</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PJ Carter</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>7</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
+      <c r="P51" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>9</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>5</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Isaiah Sealy</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Jaden Karuletwa</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Ayden Kelley</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Jayden Leverett</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>VAN@AUB</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>VAN@AUB</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5</v>
+      </c>
+      <c r="P56" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Simon Walker</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>AUB</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>VAN@AUB</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Amere Brown</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Elmir Džafić</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ARK@LSU</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>Tyler Harris</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>VAN</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>VAN@AUB</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H60" t="n">
         <v>-1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1</v>
-      </c>
-      <c r="P39" t="n">
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
         <v>6</v>
       </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>1</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>6</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Isaiah Brown</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="n">
+        <v>4</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Corey Chest</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>6</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="n">
+        <v>3</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2</v>
+      </c>
+      <c r="P71" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2</v>
+      </c>
+      <c r="P76" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Patton Pinkins</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 7:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>6</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3691,7 +6889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3728,10 +6926,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3741,62 +6939,75 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>G-Flop</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Hilton Heads</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
     <col width="35" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
@@ -843,53 +843,53 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>18</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>11</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>9</v>
+      </c>
+      <c r="V5" t="n">
         <v>10</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -905,31 +905,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -977,12 +977,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -992,123 +992,123 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1117,25 +1117,25 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1156,17 +1156,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1175,46 +1175,46 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I9" t="n">
+        <v>14</v>
+      </c>
+      <c r="J9" t="n">
         <v>12</v>
       </c>
-      <c r="J9" t="n">
-        <v>6</v>
-      </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
+        <v>8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
         <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>6</v>
       </c>
       <c r="V9" t="n">
         <v>6</v>
@@ -1223,7 +1223,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1238,41 +1238,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>20</v>
+      </c>
+      <c r="I10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1281,31 +1281,31 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>4</v>
       </c>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1315,62 +1315,62 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>18</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
         <v>5</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1397,84 +1397,84 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,32 +1484,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1521,77 +1521,77 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
@@ -1600,34 +1600,34 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1638,45 +1638,45 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1730,35 +1730,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1812,12 +1812,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1837,10 +1837,10 @@
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
@@ -1879,7 +1879,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1889,40 +1889,40 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1931,31 +1931,31 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1976,17 +1976,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1995,131 +1995,131 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
         <v>11</v>
       </c>
-      <c r="I20" t="n">
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
         <v>6</v>
       </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,38 +2140,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2180,28 +2180,28 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2212,72 +2212,72 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
+        <v>9</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
         <v>8</v>
       </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>3</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2294,72 +2294,72 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>6</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
         <v>15</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2423,80 +2423,80 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
         <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2505,31 +2505,31 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2550,17 +2550,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2569,49 +2569,49 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="I26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
+        <v>16</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="n">
         <v>5</v>
       </c>
-      <c r="P26" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>6</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-      <c r="T26" t="n">
-        <v>4</v>
-      </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2622,22 +2622,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2651,37 +2651,37 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
         <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2690,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2729,53 +2729,53 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
+        <v>25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q28" t="n">
         <v>10</v>
       </c>
-      <c r="I28" t="n">
-        <v>6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
       <c r="R28" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -2786,17 +2786,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2811,53 +2811,53 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R29" t="n">
         <v>8</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2868,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2893,47 +2893,47 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2960,35 +2960,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3032,48 +3032,48 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
         <v>5</v>
       </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>8</v>
@@ -3097,62 +3097,62 @@
         <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3161,107 +3161,107 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O33" t="n">
         <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="S33" t="n">
         <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I34" t="n">
+        <v>10</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="J34" t="n">
-        <v>3</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3288,17 +3288,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3307,60 +3307,60 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
+        <v>8</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
         <v>4</v>
       </c>
-      <c r="K35" t="n">
-        <v>6</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
       <c r="P35" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="Q35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3370,79 +3370,79 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I36" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K36" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
         <v>4</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="n">
-        <v>3</v>
-      </c>
       <c r="P36" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U36" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3452,35 +3452,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3495,19 +3495,19 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3519,12 +3519,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3534,79 +3534,79 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I38" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q38" t="n">
         <v>7</v>
       </c>
       <c r="R38" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3616,56 +3616,56 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>9</v>
+      </c>
+      <c r="I39" t="n">
         <v>10</v>
       </c>
-      <c r="I39" t="n">
-        <v>5</v>
-      </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P39" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3674,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3698,65 +3698,65 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="I40" t="n">
+        <v>7</v>
+      </c>
+      <c r="J40" t="n">
+        <v>20</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="n">
         <v>4</v>
       </c>
-      <c r="J40" t="n">
-        <v>4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>2</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
       <c r="P40" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>2</v>
@@ -3765,258 +3765,258 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4026,35 +4026,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4066,39 +4066,39 @@
         <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P44" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4108,68 +4108,68 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
+        <v>17</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q45" t="n">
         <v>6</v>
       </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2</v>
-      </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4180,27 +4180,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4209,19 +4209,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4230,28 +4230,28 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="S46" t="n">
         <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -4262,22 +4262,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4291,17 +4291,17 @@
         </is>
       </c>
       <c r="H47" t="n">
+        <v>14</v>
+      </c>
+      <c r="I47" t="n">
+        <v>21</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
         <v>4</v>
       </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
@@ -4312,28 +4312,28 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P47" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R47" t="n">
+        <v>18</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
         <v>6</v>
       </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2</v>
-      </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -4344,17 +4344,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4373,16 +4373,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -4391,25 +4391,25 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4436,17 +4436,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4455,49 +4455,49 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P49" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4518,17 +4518,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jaden Bobbett</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4537,19 +4537,19 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4558,16 +4558,16 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -4576,162 +4576,162 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I51" t="n">
+        <v>15</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
         <v>7</v>
       </c>
-      <c r="J51" t="n">
-        <v>2</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1</v>
-      </c>
-      <c r="O51" t="n">
-        <v>2</v>
-      </c>
-      <c r="P51" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2</v>
-      </c>
-      <c r="R51" t="n">
-        <v>9</v>
-      </c>
       <c r="S51" t="n">
         <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
         <v>4</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>1</v>
-      </c>
-      <c r="O52" t="n">
-        <v>3</v>
-      </c>
-      <c r="P52" t="n">
-        <v>13</v>
-      </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -4740,21 +4740,21 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4764,32 +4764,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jaden Karuletwa</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -4807,19 +4807,19 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -4831,12 +4831,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4846,26 +4846,26 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Ayden Kelley</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Wed, February 11th at 9:00 PM EST</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4889,19 +4889,19 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -4928,17 +4928,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4947,37 +4947,37 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P55" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -5010,12 +5010,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5029,13 +5029,13 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -5044,34 +5044,34 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P56" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -5092,12 +5092,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Simon Walker</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5111,49 +5111,49 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -5174,12 +5174,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Amere Brown</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5193,13 +5193,13 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5211,19 +5211,19 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5232,10 +5232,10 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -5256,17 +5256,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Elmir Džafić</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5275,16 +5275,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -5293,19 +5293,19 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P59" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -5338,17 +5338,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5357,43 +5357,43 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P60" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -5405,7 +5405,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5420,74 +5420,74 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
         <v>6</v>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1</v>
-      </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5502,62 +5502,62 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
+        <v>4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>4</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
         <v>7</v>
       </c>
-      <c r="I62" t="n">
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>3</v>
+      </c>
+      <c r="P62" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
         <v>9</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>3</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
       <c r="S62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5584,62 +5584,62 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
         <v>7</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>3</v>
-      </c>
-      <c r="R63" t="n">
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
         <v>4</v>
-      </c>
-      <c r="S63" t="n">
-        <v>1</v>
-      </c>
-      <c r="T63" t="n">
-        <v>2</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
@@ -5651,7 +5651,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5666,32 +5666,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Jaden Bobbett</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -5700,28 +5700,28 @@
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -5733,7 +5733,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5748,32 +5748,32 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -5785,37 +5785,37 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
         <v>9</v>
       </c>
-      <c r="Q65" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" t="n">
-        <v>1</v>
-      </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5830,56 +5830,56 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P66" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -5888,16 +5888,16 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5912,29 +5912,29 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Jaden Karuletwa</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -5952,22 +5952,22 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -5979,7 +5979,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5994,32 +5994,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Ayden Kelley</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -6031,25 +6031,25 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -6061,7 +6061,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -6076,29 +6076,29 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
@@ -6137,13 +6137,13 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -6158,35 +6158,35 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6198,22 +6198,22 @@
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P70" t="n">
         <v>12</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -6225,7 +6225,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -6240,29 +6240,29 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Simon Walker</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -6280,22 +6280,22 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
@@ -6307,7 +6307,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -6322,26 +6322,26 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Amere Brown</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -6389,7 +6389,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -6404,26 +6404,26 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Elmir Džafić</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6438,22 +6438,22 @@
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
@@ -6471,7 +6471,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -6486,26 +6486,26 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6520,28 +6520,28 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -6568,32 +6568,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>15:35 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -6602,22 +6602,22 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P75" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R75" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
@@ -6626,10 +6626,10 @@
         <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -6650,35 +6650,35 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -6690,28 +6690,28 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P76" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U76" t="n">
         <v>1</v>
       </c>
       <c r="V76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6747,53 +6747,53 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
+          <t>16:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R77" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T77" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -6814,68 +6814,2282 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+      <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+      <c r="I79" t="n">
+        <v>9</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="n">
+        <v>4</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>T.O. Barrett</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>MIZ@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3</v>
+      </c>
+      <c r="P81" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>6</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>2</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Shawn Phillips Jr.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>MIZ@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+      <c r="I84" t="n">
+        <v>8</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2</v>
+      </c>
+      <c r="T84" t="n">
+        <v>4</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3</v>
+      </c>
+      <c r="K85" t="n">
+        <v>3</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>0</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>TENN@MSST</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>3</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Corey Chest</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Trent Pierce</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>MIZ@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+      <c r="I90" t="n">
+        <v>5</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>2</v>
+      </c>
+      <c r="O90" t="n">
+        <v>3</v>
+      </c>
+      <c r="P90" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>6</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>Patton Pinkins</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>MISS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>ALA@MISS</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Wed, February 11th at 7:00 PM EST</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="n">
-        <v>2</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>1</v>
-      </c>
-      <c r="P78" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>6</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>1</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>5</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>3</v>
+      </c>
+      <c r="P91" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>9</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Noah Williamson</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Olivier Rioux</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Jaden Newell</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Jamarion Davis-Fleming</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>TENN@MSST</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Viktor Mikic</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>TENN@MSST</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>MIZ@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>MIZ@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Wed, February 11th at 9:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Max Smith</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Niko Bundalo</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>15:35 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>4</v>
+      </c>
+      <c r="P104" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Dylan James</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>16:13 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>-5</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6926,23 +9140,23 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6952,23 +9166,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6978,10 +9192,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6991,10 +9205,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -7004,10 +9218,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1499,11 +1499,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1527,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1745,11 +1745,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2975,11 +2975,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3109,50 +3109,50 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3161,80 +3161,80 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3243,25 +3243,25 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3288,12 +3288,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3307,55 +3307,55 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J35" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>13</v>
+      </c>
+      <c r="R35" t="n">
+        <v>22</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="n">
         <v>4</v>
       </c>
-      <c r="P35" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>7</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
         <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3370,50 +3370,50 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I36" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P36" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q36" t="n">
         <v>4</v>
@@ -3422,22 +3422,22 @@
         <v>6</v>
       </c>
       <c r="S36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3452,56 +3452,56 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>8</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
         <v>4</v>
       </c>
-      <c r="I37" t="n">
-        <v>4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3529,70 +3529,70 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I38" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L38" t="n">
         <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P38" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q38" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S38" t="n">
         <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
         <v>2</v>
@@ -3611,61 +3611,61 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3674,10 +3674,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3688,17 +3688,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3713,47 +3713,47 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I40" t="n">
+        <v>18</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
         <v>7</v>
       </c>
-      <c r="J40" t="n">
-        <v>20</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R40" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U40" t="n">
         <v>1</v>
@@ -3770,17 +3770,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3795,53 +3795,53 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
+        <v>9</v>
+      </c>
+      <c r="I41" t="n">
         <v>10</v>
       </c>
-      <c r="I41" t="n">
-        <v>15</v>
-      </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
         <v>7</v>
       </c>
-      <c r="R41" t="n">
-        <v>15</v>
-      </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -3862,68 +3862,68 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3944,35 +3944,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -3981,31 +3981,31 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4021,40 +4021,40 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I44" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4063,25 +4063,25 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S44" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4103,40 +4103,40 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I45" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>1</v>
@@ -4145,62 +4145,62 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4209,19 +4209,19 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I46" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4230,59 +4230,59 @@
         <v>1</v>
       </c>
       <c r="O46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P46" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q46" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R46" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="U46" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4291,49 +4291,49 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I47" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>15</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="n">
         <v>7</v>
       </c>
-      <c r="R47" t="n">
-        <v>18</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1</v>
-      </c>
-      <c r="T47" t="n">
-        <v>6</v>
-      </c>
       <c r="U47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -4354,17 +4354,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4373,49 +4373,49 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R48" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4455,49 +4455,49 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I49" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P49" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="Q49" t="n">
         <v>7</v>
       </c>
       <c r="R49" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U49" t="n">
         <v>6</v>
       </c>
       <c r="V49" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -4513,22 +4513,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4537,19 +4537,19 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -4558,34 +4558,34 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4595,64 +4595,64 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I51" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P51" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R51" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
         <v>2</v>
@@ -4667,7 +4667,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4677,43 +4677,43 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -4722,28 +4722,28 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
         <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1</v>
-      </c>
-      <c r="S52" t="n">
-        <v>0</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4759,61 +4759,61 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q53" t="n">
         <v>4</v>
       </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S53" t="n">
         <v>1</v>
@@ -4822,10 +4822,10 @@
         <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -4841,37 +4841,37 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4889,10 +4889,10 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
         <v>1</v>
@@ -4901,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -4913,12 +4913,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4928,62 +4928,62 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -4995,12 +4995,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5010,68 +5010,68 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I56" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5092,17 +5092,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5111,16 +5111,16 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5135,25 +5135,25 @@
         <v>3</v>
       </c>
       <c r="P57" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5174,17 +5174,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5193,49 +5193,49 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P58" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Q58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
+        <v>9</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
         <v>4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" t="n">
-        <v>6</v>
-      </c>
-      <c r="V58" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -5256,12 +5256,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5275,49 +5275,49 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
         <v>4</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>2</v>
-      </c>
-      <c r="P59" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>0</v>
-      </c>
-      <c r="T59" t="n">
-        <v>0</v>
-      </c>
-      <c r="U59" t="n">
-        <v>0</v>
-      </c>
-      <c r="V59" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -5338,7 +5338,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5357,19 +5357,19 @@
         </is>
       </c>
       <c r="H60" t="n">
+        <v>8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
         <v>5</v>
       </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -5378,28 +5378,28 @@
         <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P60" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="Q60" t="n">
         <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5420,12 +5420,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -5439,16 +5439,16 @@
         </is>
       </c>
       <c r="H61" t="n">
+        <v>6</v>
+      </c>
+      <c r="I61" t="n">
         <v>4</v>
       </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -5457,31 +5457,31 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5521,43 +5521,43 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
         <v>3</v>
       </c>
       <c r="P62" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="Q62" t="n">
         <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -5584,17 +5584,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5606,46 +5606,46 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
         <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R63" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jaden Bobbett</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5685,16 +5685,16 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -5703,25 +5703,25 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U64" t="n">
         <v>0</v>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5767,49 +5767,49 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
         <v>7</v>
       </c>
-      <c r="J65" t="n">
-        <v>2</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" t="n">
-        <v>2</v>
-      </c>
-      <c r="P65" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>2</v>
-      </c>
-      <c r="R65" t="n">
-        <v>9</v>
-      </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5830,12 +5830,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>Jaden Bobbett</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5849,13 +5849,13 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>1</v>
@@ -5867,19 +5867,19 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -5888,10 +5888,10 @@
         <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -5912,12 +5912,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Jaden Karuletwa</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5931,49 +5931,49 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Ayden Kelley</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6013,16 +6013,16 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -6031,19 +6031,19 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P68" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -6052,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69">
@@ -6076,17 +6076,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Jaden Karuletwa</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6095,13 +6095,13 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -6119,7 +6119,7 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6158,17 +6158,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Ayden Kelley</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6183,10 +6183,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6195,25 +6195,25 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -6240,12 +6240,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Simon Walker</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6280,10 +6280,10 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -6322,17 +6322,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Amere Brown</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6341,16 +6341,16 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -6359,13 +6359,13 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
@@ -6404,17 +6404,17 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Elmir Džafić</t>
+          <t>Simon Walker</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6441,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>1</v>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -6486,17 +6486,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Amere Brown</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6520,28 +6520,28 @@
         <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -6553,7 +6553,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -6568,32 +6568,32 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Elmir Džafić</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="I75" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -6602,40 +6602,40 @@
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="Q75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -6650,68 +6650,68 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="I76" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="Q76" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6732,62 +6732,62 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
+        <v>18</v>
+      </c>
+      <c r="I77" t="n">
+        <v>12</v>
+      </c>
+      <c r="J77" t="n">
         <v>9</v>
       </c>
-      <c r="I77" t="n">
-        <v>11</v>
-      </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="n">
+        <v>4</v>
+      </c>
+      <c r="P77" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
         <v>8</v>
       </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>2</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0</v>
-      </c>
-      <c r="N77" t="n">
-        <v>4</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1</v>
-      </c>
-      <c r="P77" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>3</v>
-      </c>
-      <c r="R77" t="n">
-        <v>11</v>
-      </c>
       <c r="S77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U77" t="n">
         <v>2</v>
@@ -6814,32 +6814,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I78" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
@@ -6854,16 +6854,16 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P78" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R78" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S78" t="n">
         <v>3</v>
@@ -6872,10 +6872,10 @@
         <v>4</v>
       </c>
       <c r="U78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -6911,47 +6911,47 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I79" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J79" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O79" t="n">
         <v>1</v>
       </c>
       <c r="P79" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Q79" t="n">
         <v>3</v>
       </c>
       <c r="R79" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U79" t="n">
         <v>2</v>
@@ -6978,29 +6978,29 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -7009,31 +7009,31 @@
         <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="n">
         <v>4</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1</v>
-      </c>
-      <c r="R80" t="n">
-        <v>1</v>
-      </c>
-      <c r="S80" t="n">
-        <v>0</v>
-      </c>
-      <c r="T80" t="n">
-        <v>0</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
@@ -7060,32 +7060,32 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J81" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -7094,34 +7094,34 @@
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P81" t="n">
         <v>16</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R81" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -7142,62 +7142,62 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H82" t="n">
+        <v>6</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
         <v>5</v>
       </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
-      <c r="J82" t="n">
-        <v>3</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1</v>
-      </c>
-      <c r="P82" t="n">
-        <v>21</v>
-      </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -7239,47 +7239,47 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H83" t="n">
+        <v>6</v>
+      </c>
+      <c r="I83" t="n">
+        <v>7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
         <v>5</v>
       </c>
-      <c r="I83" t="n">
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
         <v>4</v>
       </c>
-      <c r="J83" t="n">
-        <v>2</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
-        <v>1</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>2</v>
-      </c>
-      <c r="R83" t="n">
-        <v>3</v>
-      </c>
       <c r="S83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -7306,32 +7306,32 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I84" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -7340,34 +7340,34 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P84" t="n">
         <v>16</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -7388,38 +7388,38 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
+        <v>5</v>
+      </c>
+      <c r="I85" t="n">
         <v>4</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
         <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -7428,22 +7428,22 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
@@ -7470,35 +7470,35 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H86" t="n">
+        <v>5</v>
+      </c>
+      <c r="I86" t="n">
         <v>4</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -7507,19 +7507,19 @@
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -7552,65 +7552,65 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
+        <v>5</v>
+      </c>
+      <c r="I87" t="n">
+        <v>8</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>2</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="n">
         <v>4</v>
       </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>3</v>
-      </c>
-      <c r="R87" t="n">
-        <v>3</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0</v>
-      </c>
-      <c r="T87" t="n">
-        <v>0</v>
-      </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V87" t="n">
         <v>2</v>
@@ -7634,35 +7634,35 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -7677,19 +7677,19 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -7716,38 +7716,38 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -7756,16 +7756,16 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -7798,29 +7798,29 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
         <v>1</v>
@@ -7835,25 +7835,25 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R90" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
         <v>0</v>
@@ -7880,35 +7880,35 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -7920,22 +7920,22 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="Q91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S91" t="n">
         <v>1</v>
       </c>
       <c r="T91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7962,32 +7962,32 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -8005,13 +8005,13 @@
         <v>1</v>
       </c>
       <c r="P92" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -8044,35 +8044,35 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Olivier Rioux</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J93" t="n">
         <v>1</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -8081,25 +8081,25 @@
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R93" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -8126,29 +8126,29 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jaden Newell</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>16:09 - 1st Half</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -8163,25 +8163,25 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
@@ -8208,35 +8208,35 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -8248,22 +8248,22 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P95" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -8290,29 +8290,29 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Viktor Mikic</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -8330,10 +8330,10 @@
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -8348,10 +8348,10 @@
         <v>0</v>
       </c>
       <c r="U96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -8372,32 +8372,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Olivier Rioux</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -8415,13 +8415,13 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -8454,26 +8454,26 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -8491,13 +8491,13 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -8536,26 +8536,26 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8570,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -8579,19 +8579,19 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Jaden Newell</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -8633,23 +8633,23 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -8661,19 +8661,19 @@
         <v>1</v>
       </c>
       <c r="P100" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
       </c>
       <c r="R100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
@@ -8700,26 +8700,26 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Wed, February 11th at 9:00 PM EST</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8737,13 +8737,13 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
@@ -8782,26 +8782,26 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Max Smith</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -8831,13 +8831,13 @@
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
@@ -8864,29 +8864,29 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Niko Bundalo</t>
+          <t>Viktor Mikic</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -8901,13 +8901,13 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
       </c>
       <c r="P103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
@@ -8922,10 +8922,10 @@
         <v>0</v>
       </c>
       <c r="U103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -8946,32 +8946,32 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15:35 - 2nd Half</t>
+          <t>16:31 - 1st Half</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -8986,28 +8986,28 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -9028,67 +9028,559 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>MIZ@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>16:09 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
+      </c>
+      <c r="P105" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Max Smith</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Niko Bundalo</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>4</v>
+      </c>
+      <c r="P110" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>Dylan James</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>UGA</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>FLA@UGA</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>16:13 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
         <v>-5</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0</v>
-      </c>
-      <c r="P105" t="n">
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
         <v>12</v>
       </c>
-      <c r="Q105" t="n">
-        <v>0</v>
-      </c>
-      <c r="R105" t="n">
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
         <v>4</v>
       </c>
-      <c r="S105" t="n">
-        <v>0</v>
-      </c>
-      <c r="T105" t="n">
-        <v>1</v>
-      </c>
-      <c r="U105" t="n">
-        <v>0</v>
-      </c>
-      <c r="V105" t="n">
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9140,7 +9632,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9166,7 +9658,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -9205,7 +9697,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
@@ -9218,7 +9710,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,68 +910,68 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -992,35 +992,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1074,32 +1074,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1114,59 +1114,59 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1175,49 +1175,49 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1257,37 +1257,37 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I10" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
         <v>4</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1296,10 +1296,10 @@
         <v>4</v>
       </c>
       <c r="U10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1339,55 +1339,55 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="n">
         <v>6</v>
       </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="R11" t="n">
+        <v>13</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
         <v>4</v>
       </c>
-      <c r="P11" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1402,17 +1402,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1421,43 +1421,43 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
         <v>5</v>
       </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>8</v>
-      </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>6</v>
@@ -1499,23 +1499,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1585,49 +1585,49 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
         <v>6</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1663,41 +1663,41 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
         <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1730,62 +1730,62 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1812,35 +1812,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
@@ -1879,32 +1879,32 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1913,13 +1913,13 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1931,31 +1931,31 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1995,13 +1995,13 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2013,37 +2013,37 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2058,17 +2058,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2077,43 +2077,43 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
         <v>12</v>
       </c>
-      <c r="J20" t="n">
-        <v>4</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>11</v>
-      </c>
       <c r="S20" t="n">
         <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
@@ -2155,23 +2155,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2183,14 +2183,14 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
         <v>5</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
@@ -2198,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2217,17 +2217,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2241,49 +2241,49 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Taylor Bol Bowen</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2323,43 +2323,43 @@
         </is>
       </c>
       <c r="H23" t="n">
+        <v>9</v>
+      </c>
+      <c r="I23" t="n">
         <v>5</v>
       </c>
-      <c r="I23" t="n">
-        <v>3</v>
-      </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,32 +2386,32 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jalil Bethea</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2423,31 +2423,31 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2468,32 +2468,32 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Taylor Bol Bowen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2502,28 +2502,28 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2535,32 +2535,32 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Jalil Bethea</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2569,19 +2569,19 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2590,28 +2590,28 @@
         <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2627,17 +2627,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2651,55 +2651,55 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I27" t="n">
+        <v>18</v>
+      </c>
+      <c r="J27" t="n">
         <v>6</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>16</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="n">
         <v>5</v>
       </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>4</v>
-      </c>
-      <c r="P27" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2709,22 +2709,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2733,49 +2733,49 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2796,17 +2796,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2815,49 +2815,49 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" t="n">
+        <v>17</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
         <v>5</v>
       </c>
-      <c r="K29" t="n">
-        <v>2</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>2</v>
-      </c>
-      <c r="P29" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>6</v>
-      </c>
-      <c r="R29" t="n">
-        <v>8</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2897,43 +2897,43 @@
         </is>
       </c>
       <c r="H30" t="n">
+        <v>13</v>
+      </c>
+      <c r="I30" t="n">
         <v>12</v>
       </c>
-      <c r="I30" t="n">
-        <v>15</v>
-      </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R30" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2960,62 +2960,62 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3037,43 +3037,43 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R32" t="n">
         <v>8</v>
@@ -3097,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
@@ -3139,20 +3139,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3221,20 +3221,20 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3246,59 +3246,59 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3307,49 +3307,49 @@
         </is>
       </c>
       <c r="H35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
         <v>22</v>
       </c>
-      <c r="I35" t="n">
-        <v>28</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4</v>
-      </c>
-      <c r="O35" t="n">
-        <v>2</v>
-      </c>
-      <c r="P35" t="n">
-        <v>36</v>
-      </c>
       <c r="Q35" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3370,17 +3370,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kevin Overton</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3389,16 +3389,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I36" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J36" t="n">
         <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -3407,31 +3407,31 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R36" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>4</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -3452,17 +3452,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Kevin Overton</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3471,19 +3471,19 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3492,34 +3492,34 @@
         <v>2</v>
       </c>
       <c r="O37" t="n">
+        <v>5</v>
+      </c>
+      <c r="P37" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q37" t="n">
         <v>4</v>
       </c>
-      <c r="P37" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
       <c r="R37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Amari Allen</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3553,46 +3553,46 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
         <v>8</v>
       </c>
       <c r="K38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
         <v>4</v>
       </c>
       <c r="P38" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>2</v>
@@ -3616,68 +3616,68 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Amari Allen</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>29</v>
+      </c>
+      <c r="I39" t="n">
+        <v>13</v>
+      </c>
+      <c r="J39" t="n">
+        <v>8</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
         <v>4</v>
       </c>
-      <c r="I39" t="n">
+      <c r="P39" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2</v>
-      </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3693,73 +3693,73 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I40" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>6</v>
+      </c>
+      <c r="V40" t="n">
         <v>7</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>7</v>
-      </c>
-      <c r="R40" t="n">
-        <v>14</v>
-      </c>
-      <c r="S40" t="n">
-        <v>3</v>
-      </c>
-      <c r="T40" t="n">
-        <v>9</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3799,49 +3799,49 @@
         </is>
       </c>
       <c r="H41" t="n">
+        <v>23</v>
+      </c>
+      <c r="I41" t="n">
+        <v>18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>7</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>7</v>
+      </c>
+      <c r="R41" t="n">
+        <v>14</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="n">
         <v>9</v>
       </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>3</v>
-      </c>
-      <c r="P41" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>7</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3852,22 +3852,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3881,13 +3881,13 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J42" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3896,19 +3896,19 @@
         <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q42" t="n">
         <v>4</v>
-      </c>
-      <c r="P42" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
       </c>
       <c r="R42" t="n">
         <v>7</v>
@@ -3920,10 +3920,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -3944,35 +3944,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I43" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -3984,28 +3984,28 @@
         <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q43" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R43" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T43" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -4026,68 +4026,68 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I44" t="n">
         <v>7</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="Q44" t="n">
         <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -4123,17 +4123,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -4145,31 +4145,31 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -4185,22 +4185,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4209,49 +4209,49 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I46" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q46" t="n">
         <v>7</v>
       </c>
       <c r="R46" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
         <v>7</v>
       </c>
-      <c r="T46" t="n">
-        <v>13</v>
-      </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -4272,17 +4272,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4291,80 +4291,80 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I47" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J47" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P47" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R47" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T47" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4373,49 +4373,49 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I48" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q48" t="n">
         <v>6</v>
       </c>
       <c r="R48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U48" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4455,49 +4455,49 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I49" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>6</v>
+      </c>
+      <c r="R49" t="n">
+        <v>16</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
         <v>4</v>
       </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" t="n">
-        <v>3</v>
-      </c>
-      <c r="P49" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>7</v>
-      </c>
-      <c r="R49" t="n">
-        <v>18</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
-      <c r="T49" t="n">
-        <v>6</v>
-      </c>
       <c r="U49" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V49" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50">
@@ -4518,17 +4518,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4537,16 +4537,16 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4555,31 +4555,31 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P50" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R50" t="n">
+        <v>18</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
         <v>6</v>
       </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1</v>
-      </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -4595,22 +4595,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,49 +4619,49 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4701,55 +4701,55 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I52" t="n">
+        <v>22</v>
+      </c>
+      <c r="J52" t="n">
         <v>5</v>
       </c>
-      <c r="J52" t="n">
-        <v>8</v>
-      </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P52" t="n">
         <v>28</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4759,22 +4759,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4783,49 +4783,49 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
         <v>4</v>
-      </c>
-      <c r="R53" t="n">
-        <v>7</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1</v>
-      </c>
-      <c r="T53" t="n">
-        <v>2</v>
-      </c>
-      <c r="U53" t="n">
-        <v>6</v>
-      </c>
-      <c r="V53" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -4861,41 +4861,41 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4904,10 +4904,10 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -4923,61 +4923,61 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R55" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S55" t="n">
         <v>1</v>
@@ -4986,10 +4986,10 @@
         <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -5025,17 +5025,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5044,22 +5044,22 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5077,12 +5077,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2026-02-10</t>
+          <t>2026-02-11</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5092,62 +5092,62 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
         <v>6</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6</v>
-      </c>
-      <c r="K57" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="n">
-        <v>1</v>
-      </c>
-      <c r="O57" t="n">
-        <v>3</v>
-      </c>
-      <c r="P57" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>3</v>
-      </c>
-      <c r="R57" t="n">
-        <v>4</v>
-      </c>
-      <c r="S57" t="n">
-        <v>0</v>
-      </c>
-      <c r="T57" t="n">
-        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>0</v>
@@ -5174,17 +5174,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5196,7 +5196,7 @@
         <v>12</v>
       </c>
       <c r="I58" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J58" t="n">
         <v>6</v>
@@ -5211,31 +5211,31 @@
         <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
         <v>4</v>
       </c>
-      <c r="P58" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>9</v>
-      </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5256,12 +5256,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5275,16 +5275,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -5293,25 +5293,25 @@
         <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P59" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U59" t="n">
         <v>2</v>
@@ -5338,17 +5338,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5360,46 +5360,46 @@
         <v>8</v>
       </c>
       <c r="I60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
         <v>5</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>2</v>
-      </c>
-      <c r="P60" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>2</v>
-      </c>
-      <c r="R60" t="n">
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
         <v>4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" t="n">
-        <v>6</v>
-      </c>
-      <c r="V60" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5439,16 +5439,16 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -5457,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
         <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q61" t="n">
         <v>2</v>
@@ -5478,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V61" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -5502,17 +5502,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5521,49 +5521,49 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q62" t="n">
         <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -5584,17 +5584,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5603,10 +5603,10 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -5624,28 +5624,28 @@
         <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P63" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
         <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -5666,17 +5666,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5688,13 +5688,13 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -5703,31 +5703,31 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R64" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5770,40 +5770,40 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jaden Bobbett</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5849,19 +5849,19 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -5870,22 +5870,22 @@
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Jaden Bobbett</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5934,46 +5934,46 @@
         <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Isaiah Sealy</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6013,19 +6013,19 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -6034,28 +6034,28 @@
         <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
         <v>13</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U68" t="n">
         <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jaden Karuletwa</t>
+          <t>Isaiah Sealy</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6098,13 +6098,13 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -6113,19 +6113,19 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
@@ -6134,10 +6134,10 @@
         <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ayden Kelley</t>
+          <t>Jaden Karuletwa</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -6240,17 +6240,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jayden Leverett</t>
+          <t>Ayden Kelley</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6347,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -6359,25 +6359,25 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Simon Walker</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6429,10 +6429,10 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -6441,25 +6441,25 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -6486,17 +6486,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Amere Brown</t>
+          <t>Simon Walker</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ARK@LSU</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6526,16 +6526,16 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Elmir Džafić</t>
+          <t>Amere Brown</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6605,10 +6605,10 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
         <v>2</v>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
@@ -6650,17 +6650,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Elmir Džafić</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>VAN@AUB</t>
+          <t>ARK@LSU</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6684,28 +6684,28 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
         <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
       </c>
       <c r="R76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -6717,7 +6717,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2026-02-11</t>
+          <t>2026-02-10</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -6732,17 +6732,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>VAN@AUB</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6751,13 +6751,13 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>18</v>
+        <v>-1</v>
       </c>
       <c r="I77" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -6766,22 +6766,22 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P77" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="Q77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
@@ -6790,10 +6790,10 @@
         <v>1</v>
       </c>
       <c r="U77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -6814,68 +6814,68 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H78" t="n">
+        <v>22</v>
+      </c>
+      <c r="I78" t="n">
+        <v>17</v>
+      </c>
+      <c r="J78" t="n">
+        <v>7</v>
+      </c>
+      <c r="K78" t="n">
+        <v>2</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>7</v>
+      </c>
+      <c r="R78" t="n">
         <v>10</v>
       </c>
-      <c r="I78" t="n">
-        <v>12</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>3</v>
-      </c>
-      <c r="P78" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>4</v>
-      </c>
-      <c r="R78" t="n">
-        <v>7</v>
-      </c>
       <c r="S78" t="n">
         <v>3</v>
       </c>
       <c r="T78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6896,17 +6896,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6915,43 +6915,43 @@
         </is>
       </c>
       <c r="H79" t="n">
+        <v>18</v>
+      </c>
+      <c r="I79" t="n">
+        <v>12</v>
+      </c>
+      <c r="J79" t="n">
         <v>9</v>
       </c>
-      <c r="I79" t="n">
-        <v>11</v>
-      </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="n">
+        <v>4</v>
+      </c>
+      <c r="P79" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
         <v>8</v>
       </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>4</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P79" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>3</v>
-      </c>
-      <c r="R79" t="n">
-        <v>11</v>
-      </c>
       <c r="S79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T79" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U79" t="n">
         <v>2</v>
@@ -6978,38 +6978,38 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I80" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -7018,28 +7018,28 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P80" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R80" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -7060,68 +7060,68 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I81" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P81" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q81" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R81" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S81" t="n">
         <v>1</v>
       </c>
       <c r="T81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -7142,68 +7142,68 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P82" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R82" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -7224,62 +7224,62 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
         <v>7</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P83" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -7306,17 +7306,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7325,49 +7325,49 @@
         </is>
       </c>
       <c r="H84" t="n">
+        <v>9</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11</v>
+      </c>
+      <c r="J84" t="n">
+        <v>8</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>4</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>11</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="n">
         <v>6</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>2</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>3</v>
-      </c>
-      <c r="P84" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" t="n">
-        <v>3</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
-        <v>3</v>
-      </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -7388,68 +7388,68 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H85" t="n">
+        <v>9</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>8</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="n">
+        <v>3</v>
+      </c>
+      <c r="P85" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q85" t="n">
         <v>5</v>
       </c>
-      <c r="I85" t="n">
-        <v>4</v>
-      </c>
-      <c r="J85" t="n">
-        <v>3</v>
-      </c>
-      <c r="K85" t="n">
-        <v>1</v>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>1</v>
-      </c>
-      <c r="P85" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q85" t="n">
-        <v>2</v>
-      </c>
       <c r="R85" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S85" t="n">
         <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -7470,62 +7470,62 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
+        <v>9</v>
+      </c>
+      <c r="I86" t="n">
+        <v>9</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
         <v>5</v>
       </c>
-      <c r="I86" t="n">
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="n">
         <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2</v>
-      </c>
-      <c r="K86" t="n">
-        <v>1</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0</v>
-      </c>
-      <c r="N86" t="n">
-        <v>1</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>2</v>
-      </c>
-      <c r="R86" t="n">
-        <v>3</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
-        <v>0</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -7552,68 +7552,68 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I87" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P87" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R87" t="n">
         <v>5</v>
       </c>
       <c r="S87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7634,35 +7634,35 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H88" t="n">
+        <v>7</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
         <v>4</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>3</v>
-      </c>
       <c r="K88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -7671,31 +7671,31 @@
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R88" t="n">
         <v>2</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -7716,68 +7716,68 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H89" t="n">
+        <v>7</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
         <v>4</v>
       </c>
-      <c r="I89" t="n">
-        <v>6</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P89" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="Q89" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R89" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7798,35 +7798,35 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -7835,31 +7835,31 @@
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>7</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="n">
         <v>4</v>
       </c>
-      <c r="Q90" t="n">
-        <v>0</v>
-      </c>
-      <c r="R90" t="n">
-        <v>1</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0</v>
-      </c>
-      <c r="T90" t="n">
-        <v>0</v>
-      </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -7880,41 +7880,41 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -7923,13 +7923,13 @@
         <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
       </c>
       <c r="R91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S91" t="n">
         <v>1</v>
@@ -7938,10 +7938,10 @@
         <v>1</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -7962,38 +7962,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -8002,16 +8002,16 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8063,43 +8063,43 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
         <v>3</v>
       </c>
       <c r="P93" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -8126,32 +8126,32 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8160,34 +8160,34 @@
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N94" t="n">
         <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P94" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -8208,17 +8208,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -8248,19 +8248,19 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P95" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q95" t="n">
         <v>2</v>
       </c>
       <c r="R95" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95" t="n">
         <v>2</v>
@@ -8290,17 +8290,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8309,49 +8309,49 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O96" t="n">
         <v>1</v>
       </c>
       <c r="P96" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
         <v>5</v>
       </c>
-      <c r="Q96" t="n">
-        <v>0</v>
-      </c>
-      <c r="R96" t="n">
-        <v>0</v>
-      </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -8372,17 +8372,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Olivier Rioux</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8391,16 +8391,16 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -8415,13 +8415,13 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -8454,29 +8454,29 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -8497,13 +8497,13 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -8536,32 +8536,32 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -8570,28 +8570,28 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P99" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
@@ -8618,32 +8618,32 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Jaden Newell</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -8655,31 +8655,31 @@
         <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -8700,12 +8700,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -8715,14 +8715,14 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -8740,22 +8740,22 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P101" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101" t="n">
         <v>0</v>
@@ -8782,38 +8782,38 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -8822,16 +8822,16 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Viktor Mikic</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8883,16 +8883,16 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -8901,31 +8901,31 @@
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R103" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -8946,35 +8946,35 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16:31 - 1st Half</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -8983,25 +8983,25 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P104" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U104" t="n">
         <v>0</v>
@@ -9028,35 +9028,35 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>16:09 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -9065,25 +9065,25 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P105" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R105" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U105" t="n">
         <v>0</v>
@@ -9110,62 +9110,62 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P106" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" t="n">
         <v>4</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>0</v>
-      </c>
-      <c r="R106" t="n">
-        <v>2</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0</v>
-      </c>
-      <c r="T106" t="n">
-        <v>1</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
@@ -9192,38 +9192,38 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:06 - 2nd Half</t>
         </is>
       </c>
       <c r="H107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
         <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -9235,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="P107" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -9247,13 +9247,13 @@
         <v>0</v>
       </c>
       <c r="T107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -9274,12 +9274,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Max Smith</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -9293,7 +9293,7 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -9305,7 +9305,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -9314,22 +9314,22 @@
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -9356,17 +9356,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Niko Bundalo</t>
+          <t>Olivier Rioux</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -9375,13 +9375,13 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -9393,13 +9393,13 @@
         <v>0</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
@@ -9438,17 +9438,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Alex Kovatchev</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
         <v>0</v>
@@ -9478,28 +9478,28 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
       </c>
       <c r="R110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -9520,67 +9520,1051 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>Alex Lloyd</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>CJ Ingram</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>MIZ@TA&amp;M</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>18:44 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>TENN@MSST</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>18:06 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1</v>
+      </c>
+      <c r="P114" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1</v>
+      </c>
+      <c r="R114" t="n">
+        <v>3</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Jaden Newell</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Viktor Mikic</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Dellquan Warren</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>TENN@MSST</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>18:06 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Jordan Ross</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>FLA@UGA</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1</v>
+      </c>
+      <c r="P119" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>4</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Max Smith</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Niko Bundalo</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>London Jemison</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>ALA@MISS</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>4</v>
+      </c>
+      <c r="P122" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>3</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1</v>
+      </c>
+      <c r="V122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>Dylan James</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>UGA</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>FLA@UGA</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H111" t="n">
+      <c r="H123" t="n">
         <v>-5</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0</v>
-      </c>
-      <c r="P111" t="n">
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
         <v>12</v>
       </c>
-      <c r="Q111" t="n">
-        <v>0</v>
-      </c>
-      <c r="R111" t="n">
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="n">
         <v>4</v>
       </c>
-      <c r="S111" t="n">
-        <v>0</v>
-      </c>
-      <c r="T111" t="n">
-        <v>1</v>
-      </c>
-      <c r="U111" t="n">
-        <v>0</v>
-      </c>
-      <c r="V111" t="n">
+      <c r="S123" t="n">
+        <v>0</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9632,7 +10616,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9641,11 +10625,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -9654,11 +10638,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -9667,11 +10651,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -9680,27 +10664,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -9710,7 +10694,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -925,14 +925,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
@@ -947,31 +947,31 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1007,17 +1007,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -1035,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1089,14 +1089,14 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
@@ -1117,13 +1117,13 @@
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
@@ -1499,20 +1499,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" t="n">
         <v>18</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1521,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q13" t="n">
         <v>7</v>
       </c>
       <c r="R13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
@@ -1545,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q15" t="n">
         <v>3</v>
@@ -1827,20 +1827,20 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
         <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1849,25 +1849,25 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2165,10 +2165,10 @@
         <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -2177,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2426,16 +2426,16 @@
         <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P24" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -3057,47 +3057,47 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
+        <v>11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>11</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="n">
         <v>7</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1</v>
-      </c>
-      <c r="P32" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>8</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
-      <c r="T32" t="n">
-        <v>6</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3221,23 +3221,23 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3713,11 +3713,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I40" t="n">
         <v>12</v>
@@ -3732,16 +3732,16 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q40" t="n">
         <v>3</v>
@@ -3959,20 +3959,20 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I43" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J43" t="n">
         <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
@@ -3987,19 +3987,19 @@
         <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R43" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U43" t="n">
         <v>1</v>
@@ -4123,47 +4123,47 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I45" t="n">
+        <v>17</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
         <v>14</v>
       </c>
-      <c r="J45" t="n">
+      <c r="S45" t="n">
         <v>4</v>
       </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
+      <c r="T45" t="n">
         <v>9</v>
-      </c>
-      <c r="S45" t="n">
-        <v>3</v>
-      </c>
-      <c r="T45" t="n">
-        <v>4</v>
       </c>
       <c r="U45" t="n">
         <v>3</v>
@@ -4861,26 +4861,26 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
         <v>1</v>
@@ -4889,13 +4889,13 @@
         <v>1</v>
       </c>
       <c r="P54" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -6829,17 +6829,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I78" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J78" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K78" t="n">
         <v>2</v>
@@ -6857,19 +6857,19 @@
         <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q78" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R78" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S78" t="n">
         <v>3</v>
       </c>
       <c r="T78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
@@ -6896,68 +6896,68 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I79" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J79" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>4</v>
       </c>
       <c r="P79" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q79" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R79" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -6978,12 +6978,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6993,50 +6993,50 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I80" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="Q80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R80" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T80" t="n">
         <v>3</v>
       </c>
       <c r="U80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
         <v>1</v>
@@ -7060,68 +7060,68 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81" t="n">
         <v>2</v>
       </c>
       <c r="O81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P81" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q81" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R81" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -7142,68 +7142,68 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I82" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P82" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Q82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R82" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7224,56 +7224,56 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P83" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R83" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -7306,12 +7306,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -7325,49 +7325,49 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J84" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>3</v>
+      </c>
+      <c r="P84" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q84" t="n">
         <v>4</v>
       </c>
-      <c r="O84" t="n">
-        <v>1</v>
-      </c>
-      <c r="P84" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>3</v>
-      </c>
       <c r="R84" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S84" t="n">
         <v>3</v>
       </c>
       <c r="T84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -7388,12 +7388,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -7403,17 +7403,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H85" t="n">
         <v>9</v>
       </c>
       <c r="I85" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J85" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
@@ -7422,34 +7422,34 @@
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P85" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Q85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R85" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" t="n">
         <v>0</v>
       </c>
       <c r="V85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -7470,62 +7470,62 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H86" t="n">
         <v>9</v>
       </c>
       <c r="I86" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P86" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -7552,68 +7552,68 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J87" t="n">
+        <v>8</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>11</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="n">
         <v>6</v>
       </c>
-      <c r="K87" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>2</v>
-      </c>
-      <c r="P87" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q87" t="n">
-        <v>1</v>
-      </c>
-      <c r="R87" t="n">
-        <v>5</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1</v>
-      </c>
-      <c r="T87" t="n">
-        <v>3</v>
-      </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -7634,68 +7634,68 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I88" t="n">
+        <v>9</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
         <v>5</v>
       </c>
-      <c r="J88" t="n">
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="n">
         <v>4</v>
       </c>
-      <c r="K88" t="n">
-        <v>1</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1</v>
-      </c>
-      <c r="P88" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>2</v>
-      </c>
-      <c r="R88" t="n">
-        <v>2</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1</v>
-      </c>
-      <c r="T88" t="n">
-        <v>1</v>
-      </c>
       <c r="U88" t="n">
         <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7716,12 +7716,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -7731,53 +7731,53 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J89" t="n">
         <v>4</v>
       </c>
       <c r="K89" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N89" t="n">
         <v>1</v>
       </c>
       <c r="O89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P89" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R89" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -7798,68 +7798,68 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>7</v>
       </c>
       <c r="I90" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R90" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S90" t="n">
         <v>1</v>
       </c>
       <c r="T90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -7880,65 +7880,65 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I91" t="n">
+        <v>9</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>7</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="n">
         <v>4</v>
       </c>
-      <c r="J91" t="n">
-        <v>2</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2</v>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>1</v>
-      </c>
-      <c r="R91" t="n">
-        <v>3</v>
-      </c>
-      <c r="S91" t="n">
-        <v>1</v>
-      </c>
-      <c r="T91" t="n">
-        <v>1</v>
-      </c>
       <c r="U91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V91" t="n">
         <v>2</v>
@@ -7977,20 +7977,20 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -8005,25 +8005,25 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -8044,68 +8044,68 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>TENN@MSST</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>6</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93" t="n">
         <v>3</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -8126,35 +8126,35 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>TENN@MSST</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -8163,16 +8163,16 @@
         <v>2</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P94" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
         <v>3</v>
@@ -8181,13 +8181,13 @@
         <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -8208,62 +8208,62 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H95" t="n">
         <v>5</v>
       </c>
       <c r="I95" t="n">
+        <v>6</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+      <c r="O95" t="n">
+        <v>3</v>
+      </c>
+      <c r="P95" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
         <v>4</v>
       </c>
-      <c r="J95" t="n">
-        <v>3</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1</v>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1</v>
-      </c>
-      <c r="P95" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q95" t="n">
-        <v>2</v>
-      </c>
-      <c r="R95" t="n">
-        <v>6</v>
-      </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -8290,12 +8290,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -8312,46 +8312,46 @@
         <v>5</v>
       </c>
       <c r="I96" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
         <v>1</v>
       </c>
       <c r="P96" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q96" t="n">
         <v>2</v>
       </c>
       <c r="R96" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -8372,17 +8372,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8391,49 +8391,49 @@
         </is>
       </c>
       <c r="H97" t="n">
+        <v>5</v>
+      </c>
+      <c r="I97" t="n">
+        <v>8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>2</v>
+      </c>
+      <c r="T97" t="n">
         <v>4</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>3</v>
-      </c>
-      <c r="K97" t="n">
-        <v>3</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" t="n">
-        <v>2</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0</v>
-      </c>
-      <c r="T97" t="n">
-        <v>0</v>
-      </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -8454,7 +8454,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Augusto Cassiá</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -8476,13 +8476,13 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -8497,13 +8497,13 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
@@ -8515,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -8536,32 +8536,32 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H99" t="n">
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -8570,34 +8570,34 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -8633,17 +8633,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -8652,13 +8652,13 @@
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P100" t="n">
         <v>9</v>
@@ -8667,19 +8667,19 @@
         <v>1</v>
       </c>
       <c r="R100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S100" t="n">
         <v>1</v>
       </c>
       <c r="T100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -8782,68 +8782,68 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>FLA@UGA</t>
+          <t>MIZ@TA&amp;M</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H102" t="n">
         <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ALA@MISS</t>
+          <t>FLA@UGA</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8886,40 +8886,40 @@
         <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P103" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R103" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
@@ -8946,35 +8946,35 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>MIZ@TA&amp;M</t>
+          <t>ALA@MISS</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -8983,25 +8983,25 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O104" t="n">
         <v>3</v>
       </c>
       <c r="P104" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S104" t="n">
         <v>1</v>
       </c>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U104" t="n">
         <v>0</v>
@@ -9125,7 +9125,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18:44 - 2nd Half</t>
+          <t>9:44 - 2nd Half</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -9781,53 +9781,53 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
+        <v>6</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1</v>
+      </c>
+      <c r="P114" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>2</v>
+      </c>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="n">
+        <v>1</v>
+      </c>
+      <c r="T114" t="n">
+        <v>3</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1</v>
+      </c>
+      <c r="V114" t="n">
         <v>4</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1</v>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>3</v>
-      </c>
-      <c r="O114" t="n">
-        <v>1</v>
-      </c>
-      <c r="P114" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q114" t="n">
-        <v>1</v>
-      </c>
-      <c r="R114" t="n">
-        <v>3</v>
-      </c>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-      <c r="T114" t="n">
-        <v>2</v>
-      </c>
-      <c r="U114" t="n">
-        <v>1</v>
-      </c>
-      <c r="V114" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18:06 - 2nd Half</t>
+          <t>6:43 - 2nd Half</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -10616,7 +10616,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -10629,7 +10629,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -10655,7 +10655,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -10668,7 +10668,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
@@ -10681,7 +10681,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-11.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q32" t="n">
         <v>4</v>
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -7239,7 +7239,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -7731,7 +7731,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -8059,7 +8059,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -8633,7 +8633,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -8715,7 +8715,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>9:44 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>6:43 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H117" t="n">
